--- a/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
+++ b/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive - Universidad de Los Andes\2016-2\InfraComp\InfraCompCase2\InfraCompCase2\TABLAS PARA EL CASO 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Desktop\WorkSpaces\WorkSpace Infracomp\Workspace Caso 2\TABLAS PARA EL CASO 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -699,7 +699,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1110,7 +1110,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1516,7 +1516,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1922,7 +1922,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2337,7 +2337,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2747,7 +2747,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3157,7 +3157,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3614,7 +3614,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4061,7 +4061,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4136,34 +4136,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4495,7 +4495,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4952,7 +4952,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5399,7 +5399,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5474,34 +5474,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5833,7 +5833,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6290,7 +6290,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13763,7 +13763,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14065,7 +14065,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -14294,7 +14294,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -14519,7 +14519,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -14750,7 +14750,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -14997,7 +14997,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -15223,7 +15223,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -15448,7 +15448,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -15674,11 +15674,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -15823,34 +15823,34 @@
         <v>18</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -15858,34 +15858,34 @@
         <v>19</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="H7" s="4">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="J7" s="4">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="L7" s="4">
-        <v>1</v>
+        <v>3.33</v>
       </c>
     </row>
   </sheetData>
@@ -15897,11 +15897,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -16172,7 +16172,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>

--- a/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
+++ b/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -873,34 +873,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2100,34 +2100,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5474,34 +5474,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.33</c:v>
+                  <c:v>1.1555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.33</c:v>
+                  <c:v>1.1555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.33</c:v>
+                  <c:v>1.1555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.33</c:v>
+                  <c:v>1.1555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.33</c:v>
+                  <c:v>1.1555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.33</c:v>
+                  <c:v>1.1555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.33</c:v>
+                  <c:v>1.1555</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.33</c:v>
+                  <c:v>1.1555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.33</c:v>
+                  <c:v>1.1555</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.33</c:v>
+                  <c:v>1.1555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5539,34 +5539,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5604,34 +5604,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>3.3530000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14515,8 +14515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14707,34 +14707,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>4</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="D8" s="4">
-        <v>4</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="E8" s="4">
-        <v>4</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="F8" s="4">
-        <v>4</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="G8" s="4">
-        <v>4</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="H8" s="4">
-        <v>4</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="I8" s="4">
-        <v>4</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="J8" s="4">
-        <v>4</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="K8" s="4">
-        <v>4</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="L8" s="4">
-        <v>4</v>
+        <v>1.7849999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -15220,7 +15220,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15405,34 +15405,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>7</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="C7" s="4">
-        <v>7</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="D7" s="4">
-        <v>7</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="E7" s="4">
-        <v>7</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="F7" s="4">
-        <v>7</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="G7" s="4">
-        <v>7</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="H7" s="4">
-        <v>7</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="I7" s="4">
-        <v>7</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="J7" s="4">
-        <v>7</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="K7" s="4">
-        <v>7</v>
+        <v>3.3530000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -15674,8 +15674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15858,34 +15858,34 @@
         <v>19</v>
       </c>
       <c r="C7" s="4">
-        <v>3.33</v>
+        <v>1.1555</v>
       </c>
       <c r="D7" s="4">
-        <v>3.33</v>
+        <v>1.1555</v>
       </c>
       <c r="E7" s="4">
-        <v>3.33</v>
+        <v>1.1555</v>
       </c>
       <c r="F7" s="4">
-        <v>3.33</v>
+        <v>1.1555</v>
       </c>
       <c r="G7" s="4">
-        <v>3.33</v>
+        <v>1.1555</v>
       </c>
       <c r="H7" s="4">
-        <v>3.33</v>
+        <v>1.1555</v>
       </c>
       <c r="I7" s="4">
-        <v>3.33</v>
+        <v>1.1555</v>
       </c>
       <c r="J7" s="4">
-        <v>3.33</v>
+        <v>1.1555</v>
       </c>
       <c r="K7" s="4">
-        <v>3.33</v>
+        <v>1.1555</v>
       </c>
       <c r="L7" s="4">
-        <v>3.33</v>
+        <v>1.1555</v>
       </c>
     </row>
   </sheetData>

--- a/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
+++ b/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -5940,34 +5940,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>7.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>7.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>7.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>7.53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>7.53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>7.53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>7.53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>7.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>7.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14515,7 +14515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -15444,8 +15444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15635,34 +15635,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>2</v>
+        <v>7.53</v>
       </c>
       <c r="D8" s="4">
-        <v>2</v>
+        <v>7.53</v>
       </c>
       <c r="E8" s="4">
-        <v>2</v>
+        <v>7.53</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
+        <v>7.53</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>7.53</v>
       </c>
       <c r="H8" s="4">
-        <v>2</v>
+        <v>7.53</v>
       </c>
       <c r="I8" s="4">
-        <v>2</v>
+        <v>7.53</v>
       </c>
       <c r="J8" s="4">
-        <v>2</v>
+        <v>7.53</v>
       </c>
       <c r="K8" s="4">
-        <v>2</v>
+        <v>7.53</v>
       </c>
       <c r="L8" s="4">
-        <v>2</v>
+        <v>7.53</v>
       </c>
     </row>
   </sheetData>

--- a/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
+++ b/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -1279,34 +1279,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6004,34 +6004,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>7.2889999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14746,8 +14746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14950,38 +14950,37 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>5</v>
+        <v>7.2889999999999997</v>
       </c>
       <c r="D8" s="4">
-        <v>5</v>
+        <v>7.2889999999999997</v>
       </c>
       <c r="E8" s="4">
-        <v>5</v>
+        <v>7.2889999999999997</v>
       </c>
       <c r="F8" s="4">
-        <v>5</v>
+        <v>7.2889999999999997</v>
       </c>
       <c r="G8" s="4">
-        <v>5</v>
+        <v>7.2889999999999997</v>
       </c>
       <c r="H8" s="4">
-        <v>5</v>
+        <v>7.2889999999999997</v>
       </c>
       <c r="I8" s="4">
-        <v>5</v>
+        <v>7.2889999999999997</v>
       </c>
       <c r="J8" s="4">
-        <v>5</v>
+        <v>7.2889999999999997</v>
       </c>
       <c r="K8" s="4">
-        <v>5</v>
+        <v>7.2889999999999997</v>
       </c>
       <c r="L8" s="4">
-        <v>5</v>
+        <v>7.2889999999999997</v>
       </c>
       <c r="M8" s="4">
-        <f>SUM(C8:L8)/10</f>
-        <v>5</v>
+        <v>7.2889999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -15444,7 +15443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
+++ b/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -2510,34 +2510,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6068,34 +6068,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14746,7 +14746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -16167,8 +16167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -16353,34 +16353,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>8</v>
+        <v>5.52</v>
       </c>
       <c r="C7" s="4">
-        <v>8</v>
+        <v>5.52</v>
       </c>
       <c r="D7" s="4">
-        <v>8</v>
+        <v>5.52</v>
       </c>
       <c r="E7" s="4">
-        <v>8</v>
+        <v>5.52</v>
       </c>
       <c r="F7" s="4">
-        <v>8</v>
+        <v>5.52</v>
       </c>
       <c r="G7" s="4">
-        <v>8</v>
+        <v>5.52</v>
       </c>
       <c r="H7" s="4">
-        <v>8</v>
+        <v>5.52</v>
       </c>
       <c r="I7" s="4">
-        <v>8</v>
+        <v>5.52</v>
       </c>
       <c r="J7" s="4">
-        <v>7</v>
+        <v>5.52</v>
       </c>
       <c r="K7" s="4">
-        <v>8</v>
+        <v>5.52</v>
       </c>
     </row>
   </sheetData>

--- a/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
+++ b/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -6387,34 +6387,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>3.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>3.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>3.8159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>3.8159999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14061,8 +14061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14251,34 +14251,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>3</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="D8" s="4">
-        <v>3</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="E8" s="4">
-        <v>3</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="F8" s="4">
-        <v>3</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="G8" s="4">
-        <v>3</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="H8" s="4">
-        <v>3</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="I8" s="4">
-        <v>3</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="J8" s="4">
-        <v>3</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="K8" s="4">
-        <v>3</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="L8" s="4">
-        <v>3</v>
+        <v>3.8159999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -16167,8 +16167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>

--- a/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
+++ b/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -1685,34 +1685,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6451,34 +6451,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>5.5250000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14061,8 +14061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14992,8 +14992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15179,34 +15179,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>6</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="D8" s="4">
-        <v>6</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="E8" s="4">
-        <v>6</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="F8" s="4">
-        <v>6</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="G8" s="4">
-        <v>6</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="H8" s="4">
-        <v>6</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="I8" s="4">
-        <v>6</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="J8" s="4">
-        <v>6</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="K8" s="4">
-        <v>6</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="L8" s="4">
-        <v>6</v>
+        <v>5.5250000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
+++ b/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -2920,34 +2920,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6515,34 +6515,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>4.1050000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14290,8 +14290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14476,34 +14476,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>9</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="C7" s="4">
-        <v>9</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="D7" s="4">
-        <v>9</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="E7" s="4">
-        <v>9</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="F7" s="4">
-        <v>9</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="G7" s="4">
-        <v>9</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="H7" s="4">
-        <v>9</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="I7" s="4">
-        <v>9</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="J7" s="4">
-        <v>9</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="K7" s="4">
-        <v>9</v>
+        <v>4.1050000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -14992,7 +14992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
+++ b/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Desktop\WorkSpaces\WorkSpace Infracomp\Workspace Caso 2\TABLAS PARA EL CASO 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive - Universidad de Los Andes\2016-2\InfraComp\InfraCompCase2\TABLAS PARA EL CASO 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -342,34 +342,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,34 +407,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,34 +472,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,7 +699,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -809,34 +809,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,34 +873,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.7969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.7889999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.7949999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,7 +1110,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1215,34 +1215,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,34 +1279,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.3019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2779999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2969999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2880000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,7 +1516,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1621,34 +1621,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,31 +1685,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5149999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.508</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5339999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5069999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.524</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5.5250000000000004</c:v>
@@ -1922,7 +1922,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2034,34 +2034,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,31 +2103,31 @@
                   <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.3620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.3410000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.3319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.3580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.351</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.3570000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2337,7 +2337,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2444,34 +2444,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,34 +2510,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5140000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.52</c:v>
+                  <c:v>5.532</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5220000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.52</c:v>
+                  <c:v>5.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5110000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,7 +2747,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2854,34 +2854,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2920,34 +2920,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.0940000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.1139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.0869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.1020000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.1100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3157,7 +3157,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3264,34 +3264,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3328,34 +3328,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3392,34 +3392,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,7 +3614,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3711,34 +3711,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3775,34 +3775,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3839,34 +3839,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4061,7 +4061,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4201,34 +4201,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4266,34 +4266,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4495,7 +4495,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4602,34 +4602,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4666,34 +4666,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4730,34 +4730,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4952,7 +4952,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5049,34 +5049,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5113,34 +5113,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5177,34 +5177,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5399,7 +5399,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5474,34 +5474,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1555</c:v>
+                  <c:v>1.1575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1555</c:v>
+                  <c:v>1.1566000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1555</c:v>
+                  <c:v>1.1543000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1555</c:v>
+                  <c:v>1.1532</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1555</c:v>
+                  <c:v>1.1552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1555</c:v>
+                  <c:v>1.1575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1555</c:v>
+                  <c:v>1.1523000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1555</c:v>
+                  <c:v>1.1545000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1555</c:v>
+                  <c:v>1.1557999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1555</c:v>
+                  <c:v>1.1560999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5539,34 +5539,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.7969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.7889999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7849999999999999</c:v>
+                  <c:v>1.7949999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5607,31 +5607,31 @@
                   <c:v>3.3530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.3620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.3410000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.3319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.3580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.351</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.3570000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3530000000000002</c:v>
+                  <c:v>3.351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5833,7 +5833,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5940,34 +5940,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.53</c:v>
+                  <c:v>7.532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.53</c:v>
+                  <c:v>7.5229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.53</c:v>
+                  <c:v>7.5350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.53</c:v>
+                  <c:v>7.5419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.53</c:v>
+                  <c:v>7.5119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.53</c:v>
+                  <c:v>7.5220000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.53</c:v>
+                  <c:v>7.5330000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.53</c:v>
+                  <c:v>7.5449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.53</c:v>
+                  <c:v>7.5220000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.53</c:v>
+                  <c:v>7.532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6004,34 +6004,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.3019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2779999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2969999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2889999999999997</c:v>
+                  <c:v>7.2880000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6068,34 +6068,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5140000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.52</c:v>
+                  <c:v>5.532</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5220000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.52</c:v>
+                  <c:v>5.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.52</c:v>
+                  <c:v>5.5110000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6290,7 +6290,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6387,34 +6387,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.8159999999999998</c:v>
+                  <c:v>3.819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8159999999999998</c:v>
+                  <c:v>3.8119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8159999999999998</c:v>
+                  <c:v>3.8220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8159999999999998</c:v>
+                  <c:v>3.806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8159999999999998</c:v>
+                  <c:v>3.827</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8159999999999998</c:v>
+                  <c:v>3.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8159999999999998</c:v>
+                  <c:v>3.8109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8159999999999998</c:v>
+                  <c:v>3.8220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8159999999999998</c:v>
+                  <c:v>3.8010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8159999999999998</c:v>
+                  <c:v>3.7890000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6451,31 +6451,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5149999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.508</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5339999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.5069999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5250000000000004</c:v>
+                  <c:v>5.524</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5.5250000000000004</c:v>
@@ -6515,34 +6515,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.0940000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.1139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.0869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.1020000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.1100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1050000000000004</c:v>
+                  <c:v>4.101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13763,7 +13763,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14062,10 +14062,10 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -14146,34 +14146,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J5" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K5" s="3">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="L5" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
@@ -14181,34 +14181,34 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
         <v>3</v>
       </c>
       <c r="F6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -14216,34 +14216,34 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
@@ -14251,34 +14251,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>3.8159999999999998</v>
+        <v>3.819</v>
       </c>
       <c r="D8" s="4">
-        <v>3.8159999999999998</v>
+        <v>3.8119999999999998</v>
       </c>
       <c r="E8" s="4">
-        <v>3.8159999999999998</v>
+        <v>3.8220000000000001</v>
       </c>
       <c r="F8" s="4">
-        <v>3.8159999999999998</v>
+        <v>3.806</v>
       </c>
       <c r="G8" s="4">
-        <v>3.8159999999999998</v>
+        <v>3.827</v>
       </c>
       <c r="H8" s="4">
-        <v>3.8159999999999998</v>
+        <v>3.81</v>
       </c>
       <c r="I8" s="4">
-        <v>3.8159999999999998</v>
+        <v>3.8109999999999999</v>
       </c>
       <c r="J8" s="4">
-        <v>3.8159999999999998</v>
+        <v>3.8220000000000001</v>
       </c>
       <c r="K8" s="4">
-        <v>3.8159999999999998</v>
+        <v>3.8010000000000002</v>
       </c>
       <c r="L8" s="4">
-        <v>3.8159999999999998</v>
+        <v>3.7890000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -14290,11 +14290,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -14371,34 +14371,34 @@
         <v>16</v>
       </c>
       <c r="B4" s="4">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G4" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H4" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J4" s="4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K4" s="4">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -14406,34 +14406,34 @@
         <v>17</v>
       </c>
       <c r="B5" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H5" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I5" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J5" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K5" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
@@ -14441,34 +14441,34 @@
         <v>18</v>
       </c>
       <c r="B6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
@@ -14476,34 +14476,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>4.1050000000000004</v>
+        <v>4.0940000000000003</v>
       </c>
       <c r="C7" s="4">
-        <v>4.1050000000000004</v>
+        <v>4.101</v>
       </c>
       <c r="D7" s="4">
-        <v>4.1050000000000004</v>
+        <v>4.1139999999999999</v>
       </c>
       <c r="E7" s="4">
-        <v>4.1050000000000004</v>
+        <v>4.125</v>
       </c>
       <c r="F7" s="4">
-        <v>4.1050000000000004</v>
+        <v>4.0869999999999997</v>
       </c>
       <c r="G7" s="4">
-        <v>4.1050000000000004</v>
+        <v>4.1020000000000003</v>
       </c>
       <c r="H7" s="4">
         <v>4.1050000000000004</v>
       </c>
       <c r="I7" s="4">
-        <v>4.1050000000000004</v>
+        <v>4.109</v>
       </c>
       <c r="J7" s="4">
-        <v>4.1050000000000004</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="K7" s="4">
-        <v>4.1050000000000004</v>
+        <v>4.101</v>
       </c>
     </row>
   </sheetData>
@@ -14516,10 +14516,10 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -14602,34 +14602,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="4">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="F5" s="4">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G5" s="4">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="H5" s="4">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="I5" s="4">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="J5" s="4">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="K5" s="4">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="L5" s="4">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
@@ -14637,34 +14637,34 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I6" s="4">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J6" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K6" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L6" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -14672,34 +14672,34 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
@@ -14707,34 +14707,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>1.7849999999999999</v>
+        <v>1.778</v>
       </c>
       <c r="D8" s="4">
-        <v>1.7849999999999999</v>
+        <v>1.792</v>
       </c>
       <c r="E8" s="4">
-        <v>1.7849999999999999</v>
+        <v>1.788</v>
       </c>
       <c r="F8" s="4">
-        <v>1.7849999999999999</v>
+        <v>1.782</v>
       </c>
       <c r="G8" s="4">
-        <v>1.7849999999999999</v>
+        <v>1.772</v>
       </c>
       <c r="H8" s="4">
-        <v>1.7849999999999999</v>
+        <v>1.7969999999999999</v>
       </c>
       <c r="I8" s="4">
-        <v>1.7849999999999999</v>
+        <v>1.7889999999999999</v>
       </c>
       <c r="J8" s="4">
-        <v>1.7849999999999999</v>
+        <v>1.772</v>
       </c>
       <c r="K8" s="4">
-        <v>1.7849999999999999</v>
+        <v>1.766</v>
       </c>
       <c r="L8" s="4">
-        <v>1.7849999999999999</v>
+        <v>1.7949999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -14747,10 +14747,10 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -14833,38 +14833,38 @@
         <v>16</v>
       </c>
       <c r="C5" s="4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J5" s="4">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K5" s="4">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="L5" s="4">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="M5" s="4">
         <f>SUM(C5:L5)/10</f>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
@@ -14872,38 +14872,38 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H6" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I6" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K6" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L6" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" ref="M6:M7" si="0">SUM(C6:L6)/10</f>
-        <v>5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
@@ -14911,38 +14911,37 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
@@ -14950,34 +14949,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>7.2889999999999997</v>
+        <v>7.3019999999999996</v>
       </c>
       <c r="D8" s="4">
-        <v>7.2889999999999997</v>
+        <v>7.2759999999999998</v>
       </c>
       <c r="E8" s="4">
-        <v>7.2889999999999997</v>
+        <v>7.2919999999999998</v>
       </c>
       <c r="F8" s="4">
-        <v>7.2889999999999997</v>
+        <v>7.2850000000000001</v>
       </c>
       <c r="G8" s="4">
-        <v>7.2889999999999997</v>
+        <v>7.2880000000000003</v>
       </c>
       <c r="H8" s="4">
-        <v>7.2889999999999997</v>
+        <v>7.2919999999999998</v>
       </c>
       <c r="I8" s="4">
-        <v>7.2889999999999997</v>
+        <v>7.2779999999999996</v>
       </c>
       <c r="J8" s="4">
-        <v>7.2889999999999997</v>
+        <v>7.2679999999999998</v>
       </c>
       <c r="K8" s="4">
-        <v>7.2889999999999997</v>
+        <v>7.2969999999999997</v>
       </c>
       <c r="L8" s="4">
-        <v>7.2889999999999997</v>
+        <v>7.2880000000000003</v>
       </c>
       <c r="M8" s="4">
         <v>7.2889999999999997</v>
@@ -14993,10 +14992,10 @@
   <dimension ref="A2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -15074,34 +15073,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="4">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="I5" s="4">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J5" s="4">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K5" s="4">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="L5" s="4">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
@@ -15109,34 +15108,34 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I6" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J6" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K6" s="4">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="L6" s="4">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -15144,34 +15143,34 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
@@ -15179,31 +15178,31 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>5.5250000000000004</v>
+        <v>5.5449999999999999</v>
       </c>
       <c r="D8" s="4">
-        <v>5.5250000000000004</v>
+        <v>5.5149999999999997</v>
       </c>
       <c r="E8" s="4">
-        <v>5.5250000000000004</v>
+        <v>5.5270000000000001</v>
       </c>
       <c r="F8" s="4">
-        <v>5.5250000000000004</v>
+        <v>5.508</v>
       </c>
       <c r="G8" s="4">
-        <v>5.5250000000000004</v>
+        <v>5.5119999999999996</v>
       </c>
       <c r="H8" s="4">
-        <v>5.5250000000000004</v>
+        <v>5.5339999999999998</v>
       </c>
       <c r="I8" s="4">
-        <v>5.5250000000000004</v>
+        <v>5.5419999999999998</v>
       </c>
       <c r="J8" s="4">
-        <v>5.5250000000000004</v>
+        <v>5.5069999999999997</v>
       </c>
       <c r="K8" s="4">
-        <v>5.5250000000000004</v>
+        <v>5.524</v>
       </c>
       <c r="L8" s="4">
         <v>5.5250000000000004</v>
@@ -15219,10 +15218,10 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -15299,34 +15298,34 @@
         <v>16</v>
       </c>
       <c r="B4" s="4">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="C4" s="4">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="D4" s="4">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="E4" s="4">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="F4" s="4">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="G4" s="4">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="H4" s="4">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="I4" s="4">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="J4" s="4">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="K4" s="4">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -15334,34 +15333,34 @@
         <v>17</v>
       </c>
       <c r="B5" s="4">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="G5" s="4">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="H5" s="4">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I5" s="4">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J5" s="4">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K5" s="4">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
@@ -15369,34 +15368,34 @@
         <v>18</v>
       </c>
       <c r="B6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
@@ -15407,31 +15406,31 @@
         <v>3.3530000000000002</v>
       </c>
       <c r="C7" s="4">
-        <v>3.3530000000000002</v>
+        <v>3.3620000000000001</v>
       </c>
       <c r="D7" s="4">
-        <v>3.3530000000000002</v>
+        <v>3.3410000000000002</v>
       </c>
       <c r="E7" s="4">
-        <v>3.3530000000000002</v>
+        <v>3.3319999999999999</v>
       </c>
       <c r="F7" s="4">
-        <v>3.3530000000000002</v>
+        <v>3.3580000000000001</v>
       </c>
       <c r="G7" s="4">
-        <v>3.3530000000000002</v>
+        <v>3.351</v>
       </c>
       <c r="H7" s="4">
-        <v>3.3530000000000002</v>
+        <v>3.3570000000000002</v>
       </c>
       <c r="I7" s="4">
-        <v>3.3530000000000002</v>
+        <v>3.343</v>
       </c>
       <c r="J7" s="4">
-        <v>3.3530000000000002</v>
+        <v>3.347</v>
       </c>
       <c r="K7" s="4">
-        <v>3.3530000000000002</v>
+        <v>3.351</v>
       </c>
     </row>
   </sheetData>
@@ -15444,10 +15443,10 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -15529,34 +15528,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K5" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L5" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
@@ -15564,34 +15563,34 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -15599,34 +15598,34 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
@@ -15634,34 +15633,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>7.53</v>
+        <v>7.532</v>
       </c>
       <c r="D8" s="4">
-        <v>7.53</v>
+        <v>7.5229999999999997</v>
       </c>
       <c r="E8" s="4">
-        <v>7.53</v>
+        <v>7.5350000000000001</v>
       </c>
       <c r="F8" s="4">
-        <v>7.53</v>
+        <v>7.5419999999999998</v>
       </c>
       <c r="G8" s="4">
-        <v>7.53</v>
+        <v>7.5119999999999996</v>
       </c>
       <c r="H8" s="4">
-        <v>7.53</v>
+        <v>7.5220000000000002</v>
       </c>
       <c r="I8" s="4">
-        <v>7.53</v>
+        <v>7.5330000000000004</v>
       </c>
       <c r="J8" s="4">
-        <v>7.53</v>
+        <v>7.5449999999999999</v>
       </c>
       <c r="K8" s="4">
-        <v>7.53</v>
+        <v>7.5220000000000002</v>
       </c>
       <c r="L8" s="4">
-        <v>7.53</v>
+        <v>7.532</v>
       </c>
     </row>
   </sheetData>
@@ -15674,13 +15673,13 @@
   <dimension ref="A2:L7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
@@ -15752,34 +15751,34 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="L4" s="3">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
@@ -15787,34 +15786,34 @@
         <v>17</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K5" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L5" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
@@ -15857,34 +15856,34 @@
         <v>19</v>
       </c>
       <c r="C7" s="4">
-        <v>1.1555</v>
+        <v>1.1575</v>
       </c>
       <c r="D7" s="4">
-        <v>1.1555</v>
+        <v>1.1566000000000001</v>
       </c>
       <c r="E7" s="4">
-        <v>1.1555</v>
+        <v>1.1543000000000001</v>
       </c>
       <c r="F7" s="4">
-        <v>1.1555</v>
+        <v>1.1532</v>
       </c>
       <c r="G7" s="4">
-        <v>1.1555</v>
+        <v>1.1552</v>
       </c>
       <c r="H7" s="4">
-        <v>1.1555</v>
+        <v>1.1575</v>
       </c>
       <c r="I7" s="4">
-        <v>1.1555</v>
+        <v>1.1523000000000001</v>
       </c>
       <c r="J7" s="4">
-        <v>1.1555</v>
+        <v>1.1545000000000001</v>
       </c>
       <c r="K7" s="4">
-        <v>1.1555</v>
+        <v>1.1557999999999999</v>
       </c>
       <c r="L7" s="4">
-        <v>1.1555</v>
+        <v>1.1560999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -15896,11 +15895,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H7:H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -16168,10 +16167,10 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -16248,34 +16247,34 @@
         <v>16</v>
       </c>
       <c r="B4" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H4" s="4">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J4" s="4">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="K4" s="4">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -16283,34 +16282,34 @@
         <v>17</v>
       </c>
       <c r="B5" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="4">
+        <v>11</v>
+      </c>
+      <c r="K5" s="4">
         <v>7</v>
-      </c>
-      <c r="K5" s="4">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
@@ -16318,34 +16317,34 @@
         <v>18</v>
       </c>
       <c r="B6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
@@ -16353,34 +16352,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>5.52</v>
+        <v>5.5270000000000001</v>
       </c>
       <c r="C7" s="4">
-        <v>5.52</v>
+        <v>5.5140000000000002</v>
       </c>
       <c r="D7" s="4">
-        <v>5.52</v>
+        <v>5.5309999999999997</v>
       </c>
       <c r="E7" s="4">
-        <v>5.52</v>
+        <v>5.5119999999999996</v>
       </c>
       <c r="F7" s="4">
-        <v>5.52</v>
+        <v>5.532</v>
       </c>
       <c r="G7" s="4">
-        <v>5.52</v>
+        <v>5.5220000000000002</v>
       </c>
       <c r="H7" s="4">
-        <v>5.52</v>
+        <v>5.5129999999999999</v>
       </c>
       <c r="I7" s="4">
         <v>5.52</v>
       </c>
       <c r="J7" s="4">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="K7" s="4">
-        <v>5.52</v>
+        <v>5.5110000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
+++ b/TABLAS PARA EL CASO 3/Tablas de casos SIN SEGURIDAD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive - Universidad de Los Andes\2016-2\InfraComp\InfraCompCase2\TABLAS PARA EL CASO 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\AQuinto\InfraComp\Caso2\TABLAS PARA EL CASO 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -699,110 +699,64 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>400</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> transacciones</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34856933508311461"/>
-          <c:y val="4.1666666666666664E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>tiempo de autenticación</c:v>
+            <c:strRef>
+              <c:f>'Esc 4'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
               <c:f>'Esc 4'!$C$5:$L$5</c:f>
               <c:numCache>
@@ -840,11 +794,50 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Esc 4'!$C$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.772</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.766</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7949999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-992B-4957-8B3F-82A967EB6AD7}"/>
+              <c16:uniqueId val="{00000000-5A71-4E49-BEE9-17F4723DF4A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -852,63 +845,248 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>porcentaje de uso de CPU</c:v>
+            <c:strRef>
+              <c:f>'Esc 5'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Esc 4'!$C$8:$L$8</c:f>
+              <c:f>'Esc 5'!$C$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.778</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.792</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.788</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.782</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.772</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7969999999999999</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7889999999999999</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.772</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.766</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7949999999999999</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Esc 5'!$C$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.3019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2889999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-992B-4957-8B3F-82A967EB6AD7}"/>
+              <c16:uniqueId val="{00000001-5A71-4E49-BEE9-17F4723DF4A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Esc 6'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:tint val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Esc 6'!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Esc 6'!$C$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.5449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5250000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A71-4E49-BEE9-17F4723DF4A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -920,19 +1098,105 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="564246168"/>
         <c:axId val="564240920"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="564246168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de autenticación (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -970,11 +1234,8 @@
         </c:txPr>
         <c:crossAx val="564240920"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="564240920"/>
         <c:scaling>
@@ -996,8 +1257,77 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>% CPU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1029,7 +1359,7 @@
         </c:txPr>
         <c:crossAx val="564246168"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1040,7 +1370,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1110,7 +1440,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1121,136 +1451,130 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>200 transacciones</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34856933508311461"/>
-          <c:y val="4.1666666666666664E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>tiempo de autenticación</c:v>
+            <c:strRef>
+              <c:f>'Esc 7'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Esc 5'!$C$5:$L$5</c:f>
+              <c:f>'Esc 7'!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Esc 7'!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.3530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.343</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.347</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A74-4F42-BCA3-1C47AC41281F}"/>
+              <c16:uniqueId val="{00000000-C0C1-43F3-AD04-FEEB2B7CEC5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1258,63 +1582,241 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>porcentaje de uso de CPU</c:v>
+            <c:strRef>
+              <c:f>'Esc 8'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Esc 5'!$C$8:$L$8</c:f>
+              <c:f>'Esc 8'!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.3019999999999996</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2759999999999998</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2919999999999998</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2850000000000001</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2880000000000003</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2919999999999998</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2779999999999996</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2679999999999998</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2969999999999997</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2880000000000003</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Esc 8'!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.5270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5110000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4A74-4F42-BCA3-1C47AC41281F}"/>
+              <c16:uniqueId val="{00000001-C0C1-43F3-AD04-FEEB2B7CEC5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Esc 9'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Esc 9'!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Esc 9'!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.0940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C0C1-43F3-AD04-FEEB2B7CEC5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1326,19 +1828,105 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="564246168"/>
         <c:axId val="564240920"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="564246168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de autenticación (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1376,11 +1964,8 @@
         </c:txPr>
         <c:crossAx val="564240920"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="564240920"/>
         <c:scaling>
@@ -1402,8 +1987,77 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>% CPU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1435,7 +2089,7 @@
         </c:txPr>
         <c:crossAx val="564246168"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1446,1648 +2100,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>80 transacciones</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34856933508311461"/>
-          <c:y val="4.1666666666666664E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>tiempo de autenticación</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 6'!$C$5:$L$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C01D-4C86-93C6-8D3763EB5ACA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>porcentaje de uso de CPU</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 6'!$C$8:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5.5449999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5149999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5270000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.508</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.5339999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5419999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5069999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.524</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.5250000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C01D-4C86-93C6-8D3763EB5ACA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="564246168"/>
-        <c:axId val="564240920"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="564246168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="564240920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="564240920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="564246168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="106"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="6"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>400</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> transacciones</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34856933508311461"/>
-          <c:y val="4.1666666666666664E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>tiempo de autenticación</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 7'!$B$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>84</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB81-41FF-AD75-2B3D2E902A6F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>porcentaje de uso de CPU</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 7'!$B$7:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.3530000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3410000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3580000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.351</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3570000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.343</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.347</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.351</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BB81-41FF-AD75-2B3D2E902A6F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="564246168"/>
-        <c:axId val="564240920"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="564246168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="564240920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="564240920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="564246168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="106"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="6"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>200 transacciones</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34856933508311461"/>
-          <c:y val="4.1666666666666664E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>tiempo de autenticación</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 8'!$B$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-11F0-4B4A-8B7F-18E772DB0D23}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>porcentaje de uso de CPU</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 8'!$B$7:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5.5270000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5140000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5309999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.532</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.5220000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5129999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.52</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.5110000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-11F0-4B4A-8B7F-18E772DB0D23}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="564246168"/>
-        <c:axId val="564240920"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="564246168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="564240920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="564240920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="564246168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="106"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="6"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>80 transacciones</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34856933508311461"/>
-          <c:y val="4.1666666666666664E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>tiempo de autenticación</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 9'!$B$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B5A1-4FD1-BBE7-C6D870B62155}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>porcentaje de uso de CPU</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Esc 9'!$B$7:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.0940000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1139999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1020000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1050000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.109</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.1100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B5A1-4FD1-BBE7-C6D870B62155}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="564246168"/>
-        <c:axId val="564240920"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="564246168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="564240920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="564240920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="564246168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3157,7 +2170,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3614,7 +2627,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4061,7 +3074,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4495,7 +3508,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4952,7 +3965,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5399,7 +4412,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5833,7 +4846,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6290,7 +5303,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6774,24 +5787,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
-  <a:schemeClr val="accent4"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
-  <a:schemeClr val="accent4"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
-  <a:schemeClr val="accent4"/>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6981,39 +5976,8 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -7054,43 +6018,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7607,7 +6534,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8123,7 +7050,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8639,7 +7566,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9155,7 +8082,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9671,7 +8598,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10187,7 +9114,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10703,2071 +9630,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13570,19 +10433,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>885825</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Gráfico 13"/>
+        <xdr:cNvPr id="19" name="Gráfico 18"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13601,20 +10464,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Gráfico 14"/>
+        <xdr:cNvPr id="21" name="Gráfico 18"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13631,139 +10494,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Gráfico 15"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Gráfico 16"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Gráfico 17"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Gráfico 18"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14065,7 +10800,7 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -14294,7 +11029,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -14515,11 +11250,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -14746,11 +11481,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -14902,7 +11637,7 @@
         <v>12</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" ref="M6:M7" si="0">SUM(C6:L6)/10</f>
+        <f t="shared" ref="M6" si="0">SUM(C6:L6)/10</f>
         <v>7.7</v>
       </c>
     </row>
@@ -14991,11 +11726,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -15221,7 +11956,7 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -15446,7 +12181,7 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -15676,7 +12411,7 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
@@ -15895,11 +12630,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -16158,7 +12893,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16170,7 +12906,7 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
